--- a/WebPage/Common/RptTemplet/0203Report.xlsx
+++ b/WebPage/Common/RptTemplet/0203Report.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20367"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\CSIP_CardFlow\WebPage\Common\RptTemplet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B486DB56-B003-4C60-83D6-8BA8752A0568}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{592C2E93-BC3A-49E5-BD73-1675F3650087}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,11 +51,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>備注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>異動作業單查詢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>備註</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -446,23 +446,23 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="M10" sqref="M10:M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="20.625" style="2" customWidth="1"/>
     <col min="2" max="2" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.625" style="2" customWidth="1"/>
     <col min="4" max="5" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5703125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.625" style="2" customWidth="1"/>
     <col min="7" max="7" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="2"/>
+    <col min="8" max="16384" width="9.125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="32.25" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" ht="33" x14ac:dyDescent="0.6">
       <c r="A1" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -471,7 +471,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -491,7 +491,7 @@
         <v>5</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
